--- a/ftest/data/fm27/Reinsurance_example_with_location_level_fac_surplus_and_perrisk.xlsx
+++ b/ftest/data/fm27/Reinsurance_example_with_location_level_fac_surplus_and_perrisk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B8ED9E-23F6-455F-873B-CFE721668E47}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2C1BF28-8302-4372-83B7-15099DC365DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,6 @@
     <sheet name="calculation" sheetId="5" r:id="rId2"/>
     <sheet name="Oasis files" sheetId="7" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_3_0_REIN_FF_with_Policy_FAC">#REF!</definedName>
     <definedName name="_6_1_FF_Account">#REF!</definedName>
@@ -1103,25 +1100,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Information"/>
-      <sheetName val="Sample Financial Terms"/>
-      <sheetName val="Loss Example"/>
-      <sheetName val="Oasis files"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1446,7 +1424,7 @@
   <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,10 +1821,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1961,9 +1940,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
-      <c r="B3" s="20">
+      <c r="B3" s="31">
         <v>839</v>
       </c>
       <c r="C3" s="20">
@@ -2050,9 +2029,9 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
-      <c r="B4" s="20">
+      <c r="B4" s="31">
         <v>1295</v>
       </c>
       <c r="C4" s="20">
@@ -2139,9 +2118,9 @@
         <v>527940.25496852468</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
-      <c r="B5" s="20">
+      <c r="B5" s="31">
         <v>1318</v>
       </c>
       <c r="C5" s="20">
@@ -2228,9 +2207,9 @@
         <v>94850</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23"/>
-      <c r="B6" s="20">
+      <c r="B6" s="31">
         <v>2734</v>
       </c>
       <c r="C6" s="20">
@@ -2317,9 +2296,9 @@
         <v>362946.48202315159</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
-      <c r="B7" s="20">
+      <c r="B7" s="31">
         <v>4097</v>
       </c>
       <c r="C7" s="20">
@@ -2406,9 +2385,9 @@
         <v>396562.51673140365</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
-      <c r="B8" s="20">
+      <c r="B8" s="31">
         <v>4148</v>
       </c>
       <c r="C8" s="20">
@@ -2495,9 +2474,9 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
-      <c r="B9" s="20">
+      <c r="B9" s="31">
         <v>4476</v>
       </c>
       <c r="C9" s="20">
@@ -2584,9 +2563,9 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
-      <c r="B10" s="20">
+      <c r="B10" s="31">
         <v>4546</v>
       </c>
       <c r="C10" s="20">
@@ -2673,9 +2652,9 @@
         <v>189888</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
-      <c r="B11" s="20">
+      <c r="B11" s="31">
         <v>4547</v>
       </c>
       <c r="C11" s="20">
@@ -2762,9 +2741,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
-      <c r="B12" s="20">
+      <c r="B12" s="31">
         <v>5738</v>
       </c>
       <c r="C12" s="20">
@@ -2851,9 +2830,9 @@
         <v>529323.69197405642</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
-      <c r="B13" s="20">
+      <c r="B13" s="31">
         <v>8051</v>
       </c>
       <c r="C13" s="20">
@@ -2940,9 +2919,9 @@
         <v>555789.96588826261</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
-      <c r="B14" s="20">
+      <c r="B14" s="31">
         <v>8643</v>
       </c>
       <c r="C14" s="20">
@@ -3029,9 +3008,9 @@
         <v>187096</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
-      <c r="B15" s="20">
+      <c r="B15" s="31">
         <v>9409</v>
       </c>
       <c r="C15" s="20">
@@ -3118,9 +3097,9 @@
         <v>412390.39335575467</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
-      <c r="B16" s="20">
+      <c r="B16" s="31">
         <v>10633</v>
       </c>
       <c r="C16" s="20">
@@ -3207,9 +3186,9 @@
         <v>8505.2000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
-      <c r="B17" s="20">
+      <c r="B17" s="31">
         <v>10714</v>
       </c>
       <c r="C17" s="20">
@@ -3296,9 +3275,9 @@
         <v>383411.02871356416</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
-      <c r="B18" s="20">
+      <c r="B18" s="31">
         <v>10759</v>
       </c>
       <c r="C18" s="20">
@@ -3385,9 +3364,9 @@
         <v>487588.00604171783</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
-      <c r="B19" s="20">
+      <c r="B19" s="31">
         <v>11685</v>
       </c>
       <c r="C19" s="20">
@@ -3474,9 +3453,9 @@
         <v>304680</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
-      <c r="B20" s="20">
+      <c r="B20" s="31">
         <v>12198</v>
       </c>
       <c r="C20" s="20">
@@ -3563,9 +3542,9 @@
         <v>53636</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
-      <c r="B21" s="20">
+      <c r="B21" s="31">
         <v>12253</v>
       </c>
       <c r="C21" s="20">
@@ -3652,9 +3631,9 @@
         <v>129600</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
-      <c r="B22" s="20">
+      <c r="B22" s="31">
         <v>15281</v>
       </c>
       <c r="C22" s="20">
@@ -3741,9 +3720,9 @@
         <v>25757</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
-      <c r="B23" s="20">
+      <c r="B23" s="31">
         <v>15568</v>
       </c>
       <c r="C23" s="20">
@@ -3830,9 +3809,9 @@
         <v>604571.49578285695</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
-      <c r="B24" s="20">
+      <c r="B24" s="31">
         <v>15619</v>
       </c>
       <c r="C24" s="20">
@@ -3919,9 +3898,9 @@
         <v>287300</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
-      <c r="B25" s="20">
+      <c r="B25" s="31">
         <v>16388</v>
       </c>
       <c r="C25" s="20">
@@ -4008,9 +3987,9 @@
         <v>280530</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
-      <c r="B26" s="20">
+      <c r="B26" s="31">
         <v>16673</v>
       </c>
       <c r="C26" s="20">
@@ -4097,9 +4076,9 @@
         <v>14650</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
-      <c r="B27" s="20">
+      <c r="B27" s="31">
         <v>16752</v>
       </c>
       <c r="C27" s="20">
@@ -4186,9 +4165,9 @@
         <v>408290.98037921998</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
-      <c r="B28" s="20">
+      <c r="B28" s="31">
         <v>18427</v>
       </c>
       <c r="C28" s="20">
@@ -4277,7 +4256,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
-      <c r="B29" s="20">
+      <c r="B29" s="31">
         <v>18652</v>
       </c>
       <c r="C29" s="20">
@@ -4364,9 +4343,9 @@
         <v>278144.51</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
-      <c r="B30" s="20">
+      <c r="B30" s="31">
         <v>19194</v>
       </c>
       <c r="C30" s="20">
@@ -4453,9 +4432,9 @@
         <v>169578</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
-      <c r="B31" s="20">
+      <c r="B31" s="31">
         <v>19522</v>
       </c>
       <c r="C31" s="20">
@@ -4542,9 +4521,9 @@
         <v>103000</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
-      <c r="B32" s="20">
+      <c r="B32" s="31">
         <v>20318</v>
       </c>
       <c r="C32" s="20">
@@ -4631,9 +4610,9 @@
         <v>410869.10749172594</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
-      <c r="B33" s="20">
+      <c r="B33" s="31">
         <v>20322</v>
       </c>
       <c r="C33" s="20">
@@ -4720,9 +4699,9 @@
         <v>592701.64869042824</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
-      <c r="B34" s="20">
+      <c r="B34" s="31">
         <v>20419</v>
       </c>
       <c r="C34" s="20">
@@ -4809,9 +4788,9 @@
         <v>184901</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
-      <c r="B35" s="20">
+      <c r="B35" s="31">
         <v>20423</v>
       </c>
       <c r="C35" s="20">
@@ -4898,9 +4877,9 @@
         <v>567876.71370595798</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
-      <c r="B36" s="20">
+      <c r="B36" s="31">
         <v>24675</v>
       </c>
       <c r="C36" s="20">
@@ -4987,9 +4966,9 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
-      <c r="B37" s="20">
+      <c r="B37" s="31">
         <v>25747</v>
       </c>
       <c r="C37" s="20">
@@ -5076,9 +5055,9 @@
         <v>590090.44880909985</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
-      <c r="B38" s="20">
+      <c r="B38" s="31">
         <v>26619</v>
       </c>
       <c r="C38" s="20">
@@ -5165,9 +5144,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
-      <c r="B39" s="20">
+      <c r="B39" s="31">
         <v>26948</v>
       </c>
       <c r="C39" s="20">
@@ -5254,9 +5233,9 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
-      <c r="B40" s="20">
+      <c r="B40" s="31">
         <v>27350</v>
       </c>
       <c r="C40" s="20">
@@ -5343,9 +5322,9 @@
         <v>483253.8965471267</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
-      <c r="B41" s="20">
+      <c r="B41" s="31">
         <v>29035</v>
       </c>
       <c r="C41" s="20">
@@ -5432,9 +5411,9 @@
         <v>376721.47103173152</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
-      <c r="B42" s="20">
+      <c r="B42" s="31">
         <v>29289</v>
       </c>
       <c r="C42" s="20">
@@ -5521,9 +5500,9 @@
         <v>594807.10719517642</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
-      <c r="B43" s="20">
+      <c r="B43" s="31">
         <v>29294</v>
       </c>
       <c r="C43" s="20">
@@ -5610,9 +5589,9 @@
         <v>24563</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
-      <c r="B44" s="20">
+      <c r="B44" s="31">
         <v>29379</v>
       </c>
       <c r="C44" s="20">
@@ -5699,9 +5678,9 @@
         <v>94500</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
-      <c r="B45" s="20">
+      <c r="B45" s="31">
         <v>30216</v>
       </c>
       <c r="C45" s="20">
@@ -5788,9 +5767,9 @@
         <v>122763</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
-      <c r="B46" s="20">
+      <c r="B46" s="31">
         <v>30808</v>
       </c>
       <c r="C46" s="20">
@@ -5877,9 +5856,9 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
-      <c r="B47" s="20">
+      <c r="B47" s="31">
         <v>32691</v>
       </c>
       <c r="C47" s="20">
@@ -5966,9 +5945,9 @@
         <v>21130</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
-      <c r="B48" s="20">
+      <c r="B48" s="31">
         <v>33197</v>
       </c>
       <c r="C48" s="20">
@@ -6055,9 +6034,9 @@
         <v>415775.81993699708</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
-      <c r="B49" s="20">
+      <c r="B49" s="31">
         <v>34460</v>
       </c>
       <c r="C49" s="20">
@@ -6144,9 +6123,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
-      <c r="B50" s="20">
+      <c r="B50" s="31">
         <v>35444</v>
       </c>
       <c r="C50" s="20">
@@ -6233,9 +6212,9 @@
         <v>131500</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
-      <c r="B51" s="20">
+      <c r="B51" s="31">
         <v>36827</v>
       </c>
       <c r="C51" s="20">
@@ -6322,9 +6301,9 @@
         <v>560728.48960857152</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
-      <c r="B52" s="20">
+      <c r="B52" s="31">
         <v>37132</v>
       </c>
       <c r="C52" s="20">
@@ -6413,7 +6392,7 @@
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
-      <c r="B53" s="20">
+      <c r="B53" s="31">
         <v>52432</v>
       </c>
       <c r="C53" s="20">
@@ -6571,8 +6550,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Z53" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="B2:Z53" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
